--- a/Banco de Dados/Lista de brinquedos.xlsx
+++ b/Banco de Dados/Lista de brinquedos.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo.hbezerra\Documents\NetBeansProjects\PILojabrinquedoEscopo\PILojaBrinquedoEscopo\Banco de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo.bezerra\Documents\NetBeansProjects\PILojaBrinquedoEscopo\Banco de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -365,13 +365,13 @@
     <t>Codigo barras</t>
   </si>
   <si>
-    <t>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('</t>
+    <t>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0;[Red]\-&quot;R$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
@@ -574,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,9 +698,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,6 +721,21 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -746,21 +758,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -970,8 +967,8 @@
     <tableColumn id="4" name="Tempo de garantia " dataDxfId="5"/>
     <tableColumn id="5" name="Preço" dataDxfId="4"/>
     <tableColumn id="8" name="Quantidade" dataDxfId="3"/>
-    <tableColumn id="9" name="Codigo barras" dataDxfId="1"/>
-    <tableColumn id="6" name="Column1" dataDxfId="2"/>
+    <tableColumn id="9" name="Codigo barras" dataDxfId="2"/>
+    <tableColumn id="6" name="Column1" dataDxfId="1"/>
     <tableColumn id="7" name="Column2" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</calculatedColumnFormula>
     </tableColumn>
@@ -1245,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1315,7 @@
       </c>
       <c r="I2" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('1,'Telefone Feliz',59.99,'0 à 12 meses','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (1,'Telefone Feliz',59.99,'0 à 12 meses','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,7 +1345,7 @@
       </c>
       <c r="I3" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('2,'Mordedor Macaco Brincalhão',29.99,'0 à 12 meses','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (2,'Mordedor Macaco Brincalhão',29.99,'0 à 12 meses','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1378,7 +1375,7 @@
       </c>
       <c r="I4" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('3,'Robôzinho BeatBo',399.99,'0 à 12 meses','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (3,'Robôzinho BeatBo',399.99,'0 à 12 meses','Mattel','3 meses',1);</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>16</v>
@@ -1411,7 +1408,7 @@
       </c>
       <c r="I5" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('4,'Cachorrinho - Aprendendo a Brincar',179.50,'0 à 12 meses','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (4,'Cachorrinho - Aprendendo a Brincar',179.50,'0 à 12 meses','Mattel','3 meses',1);</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>17</v>
@@ -1444,7 +1441,7 @@
       </c>
       <c r="I6" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('5,'Lamparina Aprender e Brincar ',139.99,'0 à 12 meses','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (5,'Lamparina Aprender e Brincar ',139.99,'0 à 12 meses','Mattel','3 meses',1);</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>18</v>
@@ -1470,12 +1467,12 @@
       <c r="G7" s="41">
         <v>6</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I7" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('6,'Chocalho e Mordedor',19.99,'0 à 12 meses','ELKA','',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (6,'Chocalho e Mordedor',19.99,'0 à 12 meses','ELKA','',1);</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>19</v>
@@ -1506,7 +1503,7 @@
       </c>
       <c r="I8" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('7,'Chocalho Galinha Pintadinha',39.99,'0 à 12 meses','ELKA','',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (7,'Chocalho Galinha Pintadinha',39.99,'0 à 12 meses','ELKA','',1);</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>20</v>
@@ -1539,7 +1536,7 @@
       </c>
       <c r="I9" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('8,'Pirâmide de Argolas',49.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (8,'Pirâmide de Argolas',49.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>21</v>
@@ -1570,7 +1567,7 @@
       </c>
       <c r="I10" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('9,'Boneca Minnie - Conta histórias',99.99,'De 1 à 2 anos','ELKA','',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (9,'Boneca Minnie - Conta histórias',99.99,'De 1 à 2 anos','ELKA','',1);</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>22</v>
@@ -1603,7 +1600,7 @@
       </c>
       <c r="I11" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('10,'Mega Bloks - Ônibus da Escola 123 - 45 peças',99.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (10,'Mega Bloks - Ônibus da Escola 123 - 45 peças',99.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1633,7 +1630,7 @@
       </c>
       <c r="I12" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('11,'Figura de atividade - Montro Labirinto Divertido',189.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (11,'Figura de atividade - Montro Labirinto Divertido',189.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1663,7 +1660,7 @@
       </c>
       <c r="I13" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('12,'Mochila animada do cachorrinho',199.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (12,'Mochila animada do cachorrinho',199.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1693,7 +1690,7 @@
       </c>
       <c r="I14" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('13,'Piano cachorrinho aprender e brincar ',179.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (13,'Piano cachorrinho aprender e brincar ',179.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,7 +1720,7 @@
       </c>
       <c r="I15" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('14,'Pelúcia Interativa ',99.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (14,'Pelúcia Interativa ',99.99,'De 1 à 2 anos','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1753,7 +1750,7 @@
       </c>
       <c r="I16" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('15,'Boneco Baby Alive Menino - loiro',249.60,'De 3 à 4 anos','Hasbro','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (15,'Boneco Baby Alive Menino - loiro',249.60,'De 3 à 4 anos','Hasbro','3 meses',1);</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1783,7 +1780,7 @@
       </c>
       <c r="I17" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('16,'Boneca Baby Alive - loira',499.00,'De 3 à 4 anos','Hasbro','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (16,'Boneca Baby Alive - loira',499.00,'De 3 à 4 anos','Hasbro','3 meses',1);</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1813,7 +1810,7 @@
       </c>
       <c r="I18" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('17,'Microfone com base - Barbie',149.60,'De 3 à 4 anos','Barão Distribuidor','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (17,'Microfone com base - Barbie',149.60,'De 3 à 4 anos','Barão Distribuidor','3 meses',1);</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1843,7 +1840,7 @@
       </c>
       <c r="I19" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('18,'Boneca Little Mommy',89.80,'De 3 à 4 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (18,'Boneca Little Mommy',89.80,'De 3 à 4 anos','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1873,7 +1870,7 @@
       </c>
       <c r="I20" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('19,'Mini Veículo com personagem - PJ Masks',69.99,'De 3 à 4 anos','DTC','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (19,'Mini Veículo com personagem - PJ Masks',69.99,'De 3 à 4 anos','DTC','3 meses',1);</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1903,7 +1900,7 @@
       </c>
       <c r="I21" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('20,'Boneco Liga da Justiça - Superman',39.99,'De 3 à 4 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (20,'Boneco Liga da Justiça - Superman',39.99,'De 3 à 4 anos','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1933,7 +1930,7 @@
       </c>
       <c r="I22" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('21,'Boneco Liga da Justiça - Coringa',39.99,'De 3 à 4 anos','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (21,'Boneco Liga da Justiça - Coringa',39.99,'De 3 à 4 anos','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1963,7 +1960,7 @@
       </c>
       <c r="I23" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('22,'Veiculo Furgão Patrulheiro - Patrulha Canina',699.99,'De 5 à 6 anos','Sunny','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (22,'Veiculo Furgão Patrulheiro - Patrulha Canina',699.99,'De 5 à 6 anos','Sunny','3 meses',1);</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1993,7 +1990,7 @@
       </c>
       <c r="I24" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('23,'Boneco - AuthenticGames',109.99,'De 5 à 6 anos','ZR Toys','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (23,'Boneco - AuthenticGames',109.99,'De 5 à 6 anos','ZR Toys','3 meses',1);</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2021,7 +2018,7 @@
       </c>
       <c r="I25" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('24,'Jogo Pizzaria maluca',59.99,'De 5 à 6 anos','Grow','',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (24,'Jogo Pizzaria maluca',59.99,'De 5 à 6 anos','Grow','',1);</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,7 +2048,7 @@
       </c>
       <c r="I26" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('25,'Massa de Modelar - Super massa',39.99,'De 5 à 6 anos','Estrela','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (25,'Massa de Modelar - Super massa',39.99,'De 5 à 6 anos','Estrela','3 meses',1);</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2081,7 +2078,7 @@
       </c>
       <c r="I27" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('26,'Boneco Power Ranger Dino Charger - Armadura de Luxo',79.90,'De 5 à 6 anos','Sunny','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (26,'Boneco Power Ranger Dino Charger - Armadura de Luxo',79.90,'De 5 à 6 anos','Sunny','3 meses',1);</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2109,7 +2106,7 @@
       </c>
       <c r="I28" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('27,'Pista Hot Wheels - fuga em alto mar',79.99,'De 5 à 6 anos','Mattel','',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (27,'Pista Hot Wheels - fuga em alto mar',79.99,'De 5 à 6 anos','Mattel','',1);</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2139,7 +2136,7 @@
       </c>
       <c r="I29" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('28,'Luva Lança Teias - Spider Man',79.99,'De 5 à 6 anos','Hasbro','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (28,'Luva Lança Teias - Spider Man',79.99,'De 5 à 6 anos','Hasbro','3 meses',1);</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2169,7 +2166,7 @@
       </c>
       <c r="I30" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('29,'Lego Super Heroes - Disney - Marvel - Spider man',149.99,'De 7 à 8 anos ','Lego','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (29,'Lego Super Heroes - Disney - Marvel - Spider man',149.99,'De 7 à 8 anos ','Lego','3 meses',1);</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2199,7 +2196,7 @@
       </c>
       <c r="I31" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('30,'Lego City - Veículo de Policia Off Road',49.99,'De 7 à 8 anos ','Lego','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (30,'Lego City - Veículo de Policia Off Road',49.99,'De 7 à 8 anos ','Lego','3 meses',1);</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2229,7 +2226,7 @@
       </c>
       <c r="I32" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('31,'Veiculo - Avião Patruleiro - Patrulha Canina',419,'De 7 à 8 anos ','Sunny','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (31,'Veiculo - Avião Patruleiro - Patrulha Canina',419,'De 7 à 8 anos ','Sunny','3 meses',1);</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2259,7 +2256,7 @@
       </c>
       <c r="I33" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('32,'Lego super Heroes - Poderosos Micros: Iron man',89.99,'De 7 à 8 anos ','Lego','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (32,'Lego super Heroes - Poderosos Micros: Iron man',89.99,'De 7 à 8 anos ','Lego','3 meses',1);</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2289,7 +2286,7 @@
       </c>
       <c r="I34" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('33,'Hand Spinner - Ladybug',24.99,'De 7 à 8 anos ','Novabrink','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (33,'Hand Spinner - Ladybug',24.99,'De 7 à 8 anos ','Novabrink','3 meses',1);</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2319,7 +2316,7 @@
       </c>
       <c r="I35" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('34,'Hand Spinner - Batman',24.99,'De 7 à 8 anos ','Novabrink','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (34,'Hand Spinner - Batman',24.99,'De 7 à 8 anos ','Novabrink','3 meses',1);</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2344,12 +2341,12 @@
       <c r="G36" s="41">
         <v>35</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('35,'Lançador de Dardo - Nerf Rebelle',129.99,'De 7 à 8 anos ','Hasbro','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (35,'Lançador de Dardo - Nerf Rebelle',129.99,'De 7 à 8 anos ','Hasbro','3 meses',1);</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2379,7 +2376,7 @@
       </c>
       <c r="I37" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('36,'Pião Beyblade',199.99,'De 9 à 10 anos ','Hasbro','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (36,'Pião Beyblade',199.99,'De 9 à 10 anos ','Hasbro','3 meses',1);</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,7 +2406,7 @@
       </c>
       <c r="I38" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('37,'Lego Speed Champions - Mercedes',129.99,'De 9 à 10 anos ','Lego','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (37,'Lego Speed Champions - Mercedes',129.99,'De 9 à 10 anos ','Lego','3 meses',1);</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2439,7 +2436,7 @@
       </c>
       <c r="I39" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('38,'Lego Manicraft',259.99,'De 9 à 10 anos ','Lego','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (38,'Lego Manicraft',259.99,'De 9 à 10 anos ','Lego','3 meses',1);</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2469,7 +2466,7 @@
       </c>
       <c r="I40" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('39,'Conjunto de Pista - Hot Wheels - Super lava rápido',169.99,'De 9 à 10 anos ','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (39,'Conjunto de Pista - Hot Wheels - Super lava rápido',169.99,'De 9 à 10 anos ','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2499,7 +2496,7 @@
       </c>
       <c r="I41" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('40,'Bicicleta Pincesas Disney com Cesta - Aro 16',599.99,'De 9 à 10 anos ','Bandeirante','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (40,'Bicicleta Pincesas Disney com Cesta - Aro 16',599.99,'De 9 à 10 anos ','Bandeirante','3 meses',1);</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,7 +2526,7 @@
       </c>
       <c r="I42" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('41,'Picareta do Jogo - Nível Diamante',59.90,'De 9 à 10 anos ','ZR Toys','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (41,'Picareta do Jogo - Nível Diamante',59.90,'De 9 à 10 anos ','ZR Toys','3 meses',1);</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,7 +2556,7 @@
       </c>
       <c r="I43" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('42,'noneca Barbie - Fashion com acessórios',129.99,'De 9 à 10 anos ','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (42,'noneca Barbie - Fashion com acessórios',129.99,'De 9 à 10 anos ','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,7 +2586,7 @@
       </c>
       <c r="I44" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('43,'Casa da Barbie dos sonhos',1599.99,'De 11 ou mais','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (43,'Casa da Barbie dos sonhos',1599.99,'De 11 ou mais','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2619,7 +2616,7 @@
       </c>
       <c r="I45" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('44,'Arena Beyblade Burst - azul',119.70,'De 11 ou mais','Hasbro','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (44,'Arena Beyblade Burst - azul',119.70,'De 11 ou mais','Hasbro','3 meses',1);</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2649,7 +2646,7 @@
       </c>
       <c r="I46" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('45,'Carrinho Hot Wheels - Veículo Básico',9.99,'De 11 ou mais','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (45,'Carrinho Hot Wheels - Veículo Básico',9.99,'De 11 ou mais','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2679,7 +2676,7 @@
       </c>
       <c r="I47" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('46,'Mini Figura e veículo - imaginext DC Comics',49.99,'De 11 ou mais','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (46,'Mini Figura e veículo - imaginext DC Comics',49.99,'De 11 ou mais','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2709,7 +2706,7 @@
       </c>
       <c r="I48" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('47,'Boneca Barbie - Dreamtopia - Reino dos doces ',139.99,'De 11 ou mais','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (47,'Boneca Barbie - Dreamtopia - Reino dos doces ',139.99,'De 11 ou mais','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2739,7 +2736,7 @@
       </c>
       <c r="I49" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('48,'Balde de soldados - 60 peças',49.99,'De 11 ou mais','TOYNG','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (48,'Balde de soldados - 60 peças',49.99,'De 11 ou mais','TOYNG','3 meses',1);</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2769,7 +2766,7 @@
       </c>
       <c r="I50" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('49,'Boneco Articula 30cm - Titan Hero - Hulk',89.99,'De 11 ou mais','Hasbro','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (49,'Boneco Articula 30cm - Titan Hero - Hulk',89.99,'De 11 ou mais','Hasbro','3 meses',1);</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2799,7 +2796,7 @@
       </c>
       <c r="I51" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"','",Tabela2[[#This Row],[Tempo de garantia ]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES ('50,'Carrinho Die Cast - Forza Motorsport',19.99,'De 11 ou mais','Mattel','3 meses',1);</v>
+        <v>INSERT INTO Produtos (codigobarras, Nomeproduto, Valor, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade) VALUES (50,'Carrinho Die Cast - Forza Motorsport',19.99,'De 11 ou mais','Mattel','3 meses',1);</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
